--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_39.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77091.65050834345</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77091.65050834345</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188618936.408956</v>
+        <v>43894829.95227801</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12629.75766339524</v>
+        <v>1040137.158591849</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24278.81948204356</v>
+        <v>1910396.748740671</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35923.45238850264</v>
+        <v>2780656.338889495</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>47819.21113423707</v>
+        <v>3650043.683711339</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>59714.96987997148</v>
+        <v>4519431.028533182</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71610.72862570589</v>
+        <v>5388818.373355025</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83506.48737144029</v>
+        <v>6258205.718176864</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95402.24611717473</v>
+        <v>7127593.062998703</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>107298.0048629092</v>
+        <v>7996980.407820541</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>119193.7636086436</v>
+        <v>8866367.752642378</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>131089.522354378</v>
+        <v>9735755.097464217</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>142985.2811001125</v>
+        <v>10605142.44228606</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>154881.0361874529</v>
+        <v>11474529.78710791</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>166776.7949331873</v>
+        <v>12343917.13192976</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>178672.5536789219</v>
+        <v>13213304.47675161</v>
       </c>
     </row>
   </sheetData>
